--- a/Paper_Analysis/2024 Paper Analysis.xlsx
+++ b/Paper_Analysis/2024 Paper Analysis.xlsx
@@ -60750,7 +60750,10 @@
       <c r="T936" s="30"/>
     </row>
     <row r="937">
-      <c r="A937" s="12"/>
+      <c r="A937" s="12">
+        <f>COUNTIF(A2:A932, "*")</f>
+        <v>227</v>
+      </c>
       <c r="B937" s="12"/>
       <c r="C937" s="32"/>
       <c r="D937" s="32"/>
